--- a/data_generation/example_prompt_data.xlsx
+++ b/data_generation/example_prompt_data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="17080" yWindow="500" windowWidth="15560" windowHeight="19260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -21,14 +21,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFCECAC3"/>
-      <sz val="10.5"/>
+      <color rgb="FFcecac3"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +39,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -49,16 +56,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -135,10 +156,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -165,116 +186,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,272 +273,370 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Prompts</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Completions</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="39.75" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Tell me a joke.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Why couldn't the bicycle stand up by itself? Because it was...two tired!</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Why did the chicken cross the road?
+To get to the other side</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="186" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>What is the meaning of life?</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The meaning of life is what each person makes of it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>This is a question that has been asked since the dawn of time
+It is a question that has been asked by many
+'What is the meaning of life?'
+There is no one answer to this question
+It is something that each person must discover for themselves
+The meaning of life is an elusive thing
+It is something that we all chase after
+But it is something that is different for each of us
+The meaning of life is what you make of it
+It is what you put your heart and soul into
+It is what you put your time and effort into
+The meaning of life is what you make it
+So make it something that you're proud of
+Make it something that brings you happiness</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Explain the concept of time travel.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>There is no definitive answer to this question as the concept of time travel is relatively new and therefore not fully understood. However, against the backdrop of Einstein's theory of relativity, one proposed explanation for how time travel might work is the idea of a wormhole. A wormhole is essentially a shortcut through space-time, which could theoretically allow an individual to travel from one point in space-time to another instantaneously. Of course, this is all based on theory and has yet to be proven.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>The concept of time travel
+Is the stuff of science fiction
+It's the stuff of dreams
+And it's the stuff of time warp theory
+It's the stuff of space-time
+The stuff of black holes
+And the stuff of the multiverse
+ It's the stuff of Quantum Mechanics
+And the stuff ofString Theory
+It's the stuff of M-Theory
+And the stuff of time travel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="96" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Describe your favorite book.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>My favorite book is called "The Catcher in the Rye" by J.D. Salinger. It's about a boy named Holden Caulfield who is kicked out of a prestigious boarding school and becomes a wanderer in New York City. The book is funny, sad, and thought-provoking, and I really identify with Holden's voice and his struggle to find meaning in his life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>In my favorite book
+There are worlds to explore
+And adventures to be had
+The characters are all so different
+But each one is so important
+To the story as a whole
+I can't get enough of it
+And I always come back for more</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="96" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>If you could have one superpower, what would it be?</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The ability to TRANSCEND SPACE AND TIME</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>If I could have one superpower
+It would be the power to fly
+I would soar through the sky
+And never have to worry about being stuck in traffic again</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="84.75" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Discuss the impact of climate change on the environment.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The impact of climate change on the environment is far-reaching and complex. Climate change can alter habitats and impair the ability of species to adapt, leading to reductions in biodiversity. Changes in temperature and precipitation can also lead to changes in the distribution and abundance of plants and animals, as well as the timing of their life cycles. Extreme weather events, such as heat waves, droughts, and floods, are likely to become more common and more intense as the climate changes. Such events can disrupt food production, damage infrastructure, and cause loss of human life. Climate change can also exacerbate social and economic inequalities, as well as contribute to conflict and displacement of people.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Climate change is increasingly becoming a greater threat to the environment. The impact of climate change on the environment is far-reaching and devastating. It is causing glaciers to melt, rivers to flood, and wildlife to suffer. The impact of climate change is especially hard on the poorest and most vulnerable people, who are often the least able to cope with its effects. The United Nations has warned that climate change is a “silent threat” that could cause widespread human suffering and even lead to conflict.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="73.5" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>What are the benefits of meditation?</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Meditation has been shown to have a number of benefits, including reducing stress and anxiety, improving sleep, and increasing focus and concentration.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>The benefits of meditation
+Are many and varied
+Some say it helps them feel
+More connected to their higher power
+Others find it helps them
+Become more present and aware
+Still others find that it
+Helps to quiet the mind
+And bring a sense of peace
+No matter what the reason
+People find to meditate
+The benefits are potentially endless</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="163.5" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Create a short story about a magical adventure.</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>The Magical Adventure of Sarah and her Unicorn
-Sarah loved spending her days in the forest with her best friend, her Unicorn. They would explore all day and find new adventures. One day, they found a magical cave. Inside, they found a treasure trove of treasure. They were both so excited, they could barely contain themselves. They gathered as much as they could carry and went back to Sarah's house to share their spoils with her family.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>I was walking through the woods
+ when I saw a light
+ I followed it until I came to a door
+ I opened it and found myself in another world
+ There were creatures and trees
+ and a little path leading off into the distance
+ I started to follow it
+ and came across a dragon
+ He was sleeping and I snuck by
+ Then I came to a castle
+ and went inside
+ I explored every room
+ until I came to the throne room
+ where a king and queen were sitting
+ I bowed and they asked me to stay
+ I agreed and they told me about their kingdom
+ I stayed there for a while
+ and then I left
+ but I know I'll never forget
+ that magical adventure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="163.5" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Compare and contrast dogs and cats as pets.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Dogs and cats are both popular pets, but they have some key differences. For one, dogs are much more social creatures than cats and typically form stronger bonds with their owners. Dogs also need more exercise than cats, and they generally require more grooming. Finally, dogs are prone to barking and other vocalizations, while cats typically do not make much noise.</t>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Dogs
+Eager, friendly, and loyal,
+Pups will follow you everywhere,
+While cats
+Are independent, finicky, and prone to hide.</t>
         </is>
       </c>
     </row>
